--- a/03_AD/MROC/RNAV SID AND STAR TABLES.xlsx
+++ b/03_AD/MROC/RNAV SID AND STAR TABLES.xlsx
@@ -1,14 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\mxd_versioned\03_AD\MROC\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="28755" windowHeight="12585" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="28755" windowHeight="12585" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="COCOS2" sheetId="4" r:id="rId1"/>
-    <sheet name="COCOS 5" sheetId="1" r:id="rId2"/>
+    <sheet name="SID COCOS7" sheetId="1" r:id="rId2"/>
     <sheet name="TARCO 1" sheetId="2" r:id="rId3"/>
     <sheet name="TARCO 2" sheetId="3" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
@@ -392,9 +397,6 @@
     <t>LIO VOR</t>
   </si>
   <si>
-    <t>COT NDB</t>
-  </si>
-  <si>
     <t>Waypoint</t>
   </si>
   <si>
@@ -1464,9 +1466,6 @@
     <t>0843429.5W</t>
   </si>
   <si>
-    <t>PAR</t>
-  </si>
-  <si>
     <t>OC302</t>
   </si>
   <si>
@@ -1483,12 +1482,18 @@
   </si>
   <si>
     <t>OC306</t>
+  </si>
+  <si>
+    <t>COTOS</t>
+  </si>
+  <si>
+    <t>PARRI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1871,6 +1876,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1918,7 +1926,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1953,7 +1961,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2175,18 +2183,18 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>0</v>
@@ -2197,7 +2205,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>3</v>
@@ -2208,7 +2216,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>6</v>
@@ -2219,7 +2227,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>9</v>
@@ -2230,7 +2238,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>12</v>
@@ -2241,7 +2249,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>14</v>
@@ -2252,7 +2260,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>17</v>
@@ -2263,7 +2271,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>19</v>
@@ -2274,244 +2282,244 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>279</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>281</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>283</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>285</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>287</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>289</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>291</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>293</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>295</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>297</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>299</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>301</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>303</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B23" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>305</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B24" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>307</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B25" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>309</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B26" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>311</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B27" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>313</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B28" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>315</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B29" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>317</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B30" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>319</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B31" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="C31" s="9" t="s">
         <v>321</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -2525,8 +2533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2536,13 +2544,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2602,7 +2610,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>124</v>
+        <v>328</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>14</v>
@@ -2624,7 +2632,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>19</v>
@@ -3029,18 +3037,18 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>0</v>
@@ -3051,7 +3059,7 @@
     </row>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>3</v>
@@ -3062,7 +3070,7 @@
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>6</v>
@@ -3073,7 +3081,7 @@
     </row>
     <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>12</v>
@@ -3084,233 +3092,233 @@
     </row>
     <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B6" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B7" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>130</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B8" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>132</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B9" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>134</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B10" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>136</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B11" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>138</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B12" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>140</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B13" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B14" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>144</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B15" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>146</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B16" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>148</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B17" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>150</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B18" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>152</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B19" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>154</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B20" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>156</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B21" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>158</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B22" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>160</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B23" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>162</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B24" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>164</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B25" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>166</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B26" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="C26" s="9" t="s">
         <v>168</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -3324,8 +3332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="A2:C27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3335,18 +3343,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="C1" s="17" t="s">
         <v>126</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>14</v>
@@ -3357,7 +3365,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>17</v>
@@ -3368,7 +3376,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>3</v>
@@ -3379,7 +3387,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>6</v>
@@ -3390,29 +3398,29 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="19" t="s">
         <v>134</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="19" t="s">
         <v>130</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>0</v>
@@ -3423,18 +3431,18 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>221</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>12</v>
@@ -3445,189 +3453,189 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" s="19" t="s">
         <v>138</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C12" s="19" t="s">
         <v>223</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C13" s="19" t="s">
         <v>225</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C14" s="19" t="s">
         <v>227</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C15" s="19" t="s">
         <v>229</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C16" s="19" t="s">
         <v>231</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C17" s="19" t="s">
         <v>233</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C18" s="19" t="s">
         <v>235</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C19" s="19" t="s">
         <v>237</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C20" s="19" t="s">
         <v>239</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C21" s="19" t="s">
         <v>241</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C22" s="19" t="s">
         <v>243</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B23" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C23" s="19" t="s">
         <v>245</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B24" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C24" s="19" t="s">
         <v>247</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B25" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C25" s="19" t="s">
         <v>249</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B26" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C26" s="19" t="s">
         <v>251</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B27" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="C27" s="22" t="s">
         <v>253</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -3648,7 +3656,7 @@
   <sheetData>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="23" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C6" s="23">
         <v>8568</v>
@@ -3656,7 +3664,7 @@
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="23" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C7" s="23">
         <v>8049</v>
@@ -3664,7 +3672,7 @@
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="23" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C8" s="23">
         <v>6700</v>
@@ -3672,7 +3680,7 @@
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="23" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C14" s="23">
         <v>8100</v>
@@ -3680,7 +3688,7 @@
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="23" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C15" s="23">
         <v>7100</v>
@@ -3688,7 +3696,7 @@
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="23" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C16" s="23">
         <v>5300</v>

--- a/03_AD/MROC/RNAV SID AND STAR TABLES.xlsx
+++ b/03_AD/MROC/RNAV SID AND STAR TABLES.xlsx
@@ -13,17 +13,18 @@
   </bookViews>
   <sheets>
     <sheet name="COCOS2" sheetId="4" r:id="rId1"/>
-    <sheet name="SID COCOS7" sheetId="1" r:id="rId2"/>
-    <sheet name="TARCO 1" sheetId="2" r:id="rId3"/>
-    <sheet name="TARCO 2" sheetId="3" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
+    <sheet name="RNP AR RWY25" sheetId="6" r:id="rId2"/>
+    <sheet name="SID COCOS7" sheetId="1" r:id="rId3"/>
+    <sheet name="TARCO 1" sheetId="2" r:id="rId4"/>
+    <sheet name="TARCO 2" sheetId="3" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="381">
   <si>
     <t>095747.3N</t>
   </si>
@@ -1488,13 +1489,186 @@
   </si>
   <si>
     <t>PARRI</t>
+  </si>
+  <si>
+    <t>Designator</t>
+  </si>
+  <si>
+    <t>Path Descriptor</t>
+  </si>
+  <si>
+    <t>Fix Identifier
+(Waypoint Name)</t>
+  </si>
+  <si>
+    <t>Flyover</t>
+  </si>
+  <si>
+    <t>Course
+°M (°T)</t>
+  </si>
+  <si>
+    <t>Turn Direction</t>
+  </si>
+  <si>
+    <t>Altitude
+(ft)</t>
+  </si>
+  <si>
+    <t>Distance 
+(Nm)</t>
+  </si>
+  <si>
+    <t>Speed
+Limit (Kt)</t>
+  </si>
+  <si>
+    <t>Magnetic
+Variation</t>
+  </si>
+  <si>
+    <t>Vertical Angle/ Threshold Crossing Height</t>
+  </si>
+  <si>
+    <t>Navigation
+Performance</t>
+  </si>
+  <si>
+    <t>radius (NM)</t>
+  </si>
+  <si>
+    <t>Arc Center Fix</t>
+  </si>
+  <si>
+    <t>D/d</t>
+  </si>
+  <si>
+    <t>M/d</t>
+  </si>
+  <si>
+    <t>DECLINATION</t>
+  </si>
+  <si>
+    <t>IF</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>0°20' W</t>
+  </si>
+  <si>
+    <t>TF</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>-3.5°</t>
+  </si>
+  <si>
+    <t>RF</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>-3.5°/50'</t>
+  </si>
+  <si>
+    <t>RNP W RWY25 (AR)</t>
+  </si>
+  <si>
+    <t>OC301
+(IAF)</t>
+  </si>
+  <si>
+    <t>OC303
+094827.8N
+0841455.2W</t>
+  </si>
+  <si>
+    <t>OC308</t>
+  </si>
+  <si>
+    <t>OC307
+095823.1N
+0840813.3W</t>
+  </si>
+  <si>
+    <t>RNP AR</t>
+  </si>
+  <si>
+    <t>OC305
+(FAF)</t>
+  </si>
+  <si>
+    <t>OC304
+(IF)</t>
+  </si>
+  <si>
+    <t>OC309
+MAPt (RWY25)</t>
+  </si>
+  <si>
+    <t>OC310
+(MHF)</t>
+  </si>
+  <si>
+    <t>3517/
+3427</t>
+  </si>
+  <si>
+    <t>095949.60N</t>
+  </si>
+  <si>
+    <t>0841200.98W</t>
+  </si>
+  <si>
+    <t>095236.5N</t>
+  </si>
+  <si>
+    <t>0843117.0W</t>
+  </si>
+  <si>
+    <t>094913.6N</t>
+  </si>
+  <si>
+    <t>0841847.6W</t>
+  </si>
+  <si>
+    <t>095204.5N</t>
+  </si>
+  <si>
+    <t>0841626.7W</t>
+  </si>
+  <si>
+    <t>095555.0N</t>
+  </si>
+  <si>
+    <t>0840710.9W</t>
+  </si>
+  <si>
+    <t>100053.3N</t>
+  </si>
+  <si>
+    <t>0840910.4W</t>
+  </si>
+  <si>
+    <t>018 (018)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1519,16 +1693,72 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1791,11 +2021,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1865,6 +2115,62 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1959,6 +2265,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1994,6 +2317,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2531,9 +2871,597 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:P8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="5" width="15" customWidth="1"/>
+    <col min="16" max="17" width="13.140625" customWidth="1"/>
+    <col min="18" max="18" width="12.85546875" customWidth="1"/>
+    <col min="19" max="20" width="11.42578125" customWidth="1"/>
+    <col min="21" max="21" width="20.7109375" customWidth="1"/>
+    <col min="22" max="22" width="11.42578125" customWidth="1"/>
+    <col min="23" max="23" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>331</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>332</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>334</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>335</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>336</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>337</v>
+      </c>
+      <c r="K1" s="24" t="s">
+        <v>338</v>
+      </c>
+      <c r="L1" s="24" t="s">
+        <v>339</v>
+      </c>
+      <c r="M1" s="24" t="s">
+        <v>340</v>
+      </c>
+      <c r="N1" s="24" t="s">
+        <v>341</v>
+      </c>
+      <c r="O1" s="25" t="s">
+        <v>342</v>
+      </c>
+      <c r="P1" s="25" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="S1" s="26" t="s">
+        <v>344</v>
+      </c>
+      <c r="T1" s="26" t="s">
+        <v>345</v>
+      </c>
+      <c r="U1" s="27" t="s">
+        <v>346</v>
+      </c>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+    </row>
+    <row r="2" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>357</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>358</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>355</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>348</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="I2" s="30">
+        <v>9000</v>
+      </c>
+      <c r="J2" s="38">
+        <v>3.2</v>
+      </c>
+      <c r="K2" s="29">
+        <v>230</v>
+      </c>
+      <c r="L2" s="31" t="s">
+        <v>349</v>
+      </c>
+      <c r="M2" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="N2" s="29" t="s">
+        <v>362</v>
+      </c>
+      <c r="O2" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="P2" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="32" t="s">
+        <v>348</v>
+      </c>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="28"/>
+    </row>
+    <row r="3" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>357</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>350</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>322</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>372</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>373</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>355</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>380</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="I3" s="30">
+        <v>8568</v>
+      </c>
+      <c r="J3" s="36">
+        <v>3.2</v>
+      </c>
+      <c r="K3" s="29">
+        <v>210</v>
+      </c>
+      <c r="L3" s="31" t="s">
+        <v>349</v>
+      </c>
+      <c r="M3" s="30" t="s">
+        <v>352</v>
+      </c>
+      <c r="N3" s="29" t="s">
+        <v>362</v>
+      </c>
+      <c r="O3" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="P3" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="33" t="s">
+        <v>348</v>
+      </c>
+      <c r="S3" s="34">
+        <v>1</v>
+      </c>
+      <c r="T3" s="34">
+        <v>0</v>
+      </c>
+      <c r="U3" s="34">
+        <f>(S3+T3/60)</f>
+        <v>1</v>
+      </c>
+      <c r="V3" s="34" t="e">
+        <f>R3-U3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W3" s="34" t="e">
+        <f>TEXT(V3,"000")&amp;TEXT(R3," (000)")</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>357</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>353</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>364</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>374</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>375</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>355</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>348</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>354</v>
+      </c>
+      <c r="I4" s="30">
+        <v>8049</v>
+      </c>
+      <c r="J4" s="39">
+        <v>3.8</v>
+      </c>
+      <c r="K4" s="29">
+        <v>210</v>
+      </c>
+      <c r="L4" s="31" t="s">
+        <v>349</v>
+      </c>
+      <c r="M4" s="30" t="s">
+        <v>352</v>
+      </c>
+      <c r="N4" s="29" t="s">
+        <v>362</v>
+      </c>
+      <c r="O4" s="36">
+        <v>3.9</v>
+      </c>
+      <c r="P4" s="29" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="33" t="s">
+        <v>348</v>
+      </c>
+      <c r="S4" s="34">
+        <v>1</v>
+      </c>
+      <c r="T4" s="34">
+        <v>0</v>
+      </c>
+      <c r="U4" s="34">
+        <f t="shared" ref="U4:U8" si="0">(S4+T4/60)</f>
+        <v>1</v>
+      </c>
+      <c r="V4" s="34" t="e">
+        <f t="shared" ref="V4:V8" si="1">R4-U4</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W4" s="34" t="e">
+        <f t="shared" ref="W4:W8" si="2">TEXT(V4,"000")&amp;TEXT(R4," (000)")</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>357</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>350</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>363</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>376</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>377</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>355</v>
+      </c>
+      <c r="G5" s="31" t="str">
+        <f>W5</f>
+        <v>066 (067)</v>
+      </c>
+      <c r="H5" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="I5" s="30">
+        <v>7280</v>
+      </c>
+      <c r="J5" s="39">
+        <v>9.9</v>
+      </c>
+      <c r="K5" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="L5" s="31" t="s">
+        <v>349</v>
+      </c>
+      <c r="M5" s="30" t="s">
+        <v>352</v>
+      </c>
+      <c r="N5" s="29" t="s">
+        <v>362</v>
+      </c>
+      <c r="O5" s="35" t="s">
+        <v>348</v>
+      </c>
+      <c r="P5" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q5" s="41"/>
+      <c r="R5" s="33">
+        <v>67.289590000000004</v>
+      </c>
+      <c r="S5" s="34">
+        <v>1</v>
+      </c>
+      <c r="T5" s="34">
+        <v>0</v>
+      </c>
+      <c r="U5" s="34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V5" s="34">
+        <f t="shared" si="1"/>
+        <v>66.289590000000004</v>
+      </c>
+      <c r="W5" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v>066 (067)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
+        <v>357</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>353</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>360</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>378</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>379</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>355</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>348</v>
+      </c>
+      <c r="H6" s="29" t="s">
+        <v>351</v>
+      </c>
+      <c r="I6" s="30">
+        <v>4193</v>
+      </c>
+      <c r="J6" s="39">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="K6" s="29">
+        <v>165</v>
+      </c>
+      <c r="L6" s="31" t="s">
+        <v>349</v>
+      </c>
+      <c r="M6" s="30" t="s">
+        <v>352</v>
+      </c>
+      <c r="N6" s="29" t="s">
+        <v>362</v>
+      </c>
+      <c r="O6" s="29">
+        <v>2.7</v>
+      </c>
+      <c r="P6" s="29" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="33" t="s">
+        <v>348</v>
+      </c>
+      <c r="S6" s="34">
+        <v>1</v>
+      </c>
+      <c r="T6" s="34">
+        <v>0</v>
+      </c>
+      <c r="U6" s="34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V6" s="34" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W6" s="34" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
+        <v>357</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>350</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>365</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>368</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>369</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>355</v>
+      </c>
+      <c r="G7" s="31" t="str">
+        <f>W7</f>
+        <v>248 (249)</v>
+      </c>
+      <c r="H7" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="I7" s="37" t="s">
+        <v>367</v>
+      </c>
+      <c r="J7" s="39">
+        <v>3</v>
+      </c>
+      <c r="K7" s="43">
+        <v>248</v>
+      </c>
+      <c r="L7" s="31" t="s">
+        <v>349</v>
+      </c>
+      <c r="M7" s="30" t="s">
+        <v>356</v>
+      </c>
+      <c r="N7" s="29" t="s">
+        <v>362</v>
+      </c>
+      <c r="O7" s="35" t="s">
+        <v>348</v>
+      </c>
+      <c r="P7" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="33">
+        <v>249.36086</v>
+      </c>
+      <c r="S7" s="34">
+        <v>1</v>
+      </c>
+      <c r="T7" s="34">
+        <v>0</v>
+      </c>
+      <c r="U7" s="34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V7" s="34">
+        <f t="shared" si="1"/>
+        <v>248.36086</v>
+      </c>
+      <c r="W7" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v>248 (249)</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="29" t="s">
+        <v>357</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>350</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>366</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>370</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>371</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>355</v>
+      </c>
+      <c r="G8" s="31" t="str">
+        <f>W8</f>
+        <v>248 (249)</v>
+      </c>
+      <c r="H8" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="I8" s="30">
+        <v>6500</v>
+      </c>
+      <c r="J8" s="39">
+        <v>20.3</v>
+      </c>
+      <c r="K8" s="29">
+        <v>230</v>
+      </c>
+      <c r="L8" s="31" t="s">
+        <v>349</v>
+      </c>
+      <c r="M8" s="30" t="s">
+        <v>352</v>
+      </c>
+      <c r="N8" s="29" t="s">
+        <v>362</v>
+      </c>
+      <c r="O8" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="P8" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q8" s="41"/>
+      <c r="R8" s="33">
+        <v>249.32705000000001</v>
+      </c>
+      <c r="S8" s="34">
+        <v>1</v>
+      </c>
+      <c r="T8" s="34">
+        <v>0</v>
+      </c>
+      <c r="U8" s="34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="V8" s="34">
+        <f t="shared" si="1"/>
+        <v>248.32705000000001</v>
+      </c>
+      <c r="W8" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v>248 (249)</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R14" s="33">
+        <v>11.225300000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
@@ -3022,7 +3950,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
   <sheetViews>
@@ -3328,7 +4256,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
   <sheetViews>
@@ -3644,7 +4572,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:C16"/>
   <sheetViews>

--- a/03_AD/MROC/RNAV SID AND STAR TABLES.xlsx
+++ b/03_AD/MROC/RNAV SID AND STAR TABLES.xlsx
@@ -13,18 +13,19 @@
   </bookViews>
   <sheets>
     <sheet name="COCOS2" sheetId="4" r:id="rId1"/>
-    <sheet name="RNP AR RWY25" sheetId="6" r:id="rId2"/>
-    <sheet name="SID COCOS7" sheetId="1" r:id="rId3"/>
-    <sheet name="TARCO 1" sheetId="2" r:id="rId4"/>
-    <sheet name="TARCO 2" sheetId="3" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId6"/>
+    <sheet name="RNP E RWY25 AR" sheetId="7" r:id="rId2"/>
+    <sheet name="RNP W RWY25 AR" sheetId="6" r:id="rId3"/>
+    <sheet name="SID COCOS7" sheetId="1" r:id="rId4"/>
+    <sheet name="TARCO 1" sheetId="2" r:id="rId5"/>
+    <sheet name="TARCO 2" sheetId="3" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="392">
   <si>
     <t>095747.3N</t>
   </si>
@@ -1555,9 +1556,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>0°20' W</t>
-  </si>
-  <si>
     <t>TF</t>
   </si>
   <si>
@@ -1659,6 +1657,47 @@
   </si>
   <si>
     <t>018 (018)</t>
+  </si>
+  <si>
+    <t>1°00' E</t>
+  </si>
+  <si>
+    <t>OC311
+(IAF)
+PARAI</t>
+  </si>
+  <si>
+    <t>OC313
+095630.87N
+0840033.77W</t>
+  </si>
+  <si>
+    <t>RNP E RWY25 (AR)</t>
+  </si>
+  <si>
+    <t>OC306
+FAF</t>
+  </si>
+  <si>
+    <t>095321.9N</t>
+  </si>
+  <si>
+    <t>0840116.4W</t>
+  </si>
+  <si>
+    <t>095502.5N</t>
+  </si>
+  <si>
+    <t>0840327.4W</t>
+  </si>
+  <si>
+    <t>095936.4N</t>
+  </si>
+  <si>
+    <t>0840549.2W</t>
+  </si>
+  <si>
+    <t>282 (283)</t>
   </si>
 </sst>
 </file>
@@ -1668,7 +1707,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1731,6 +1770,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -2045,7 +2089,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2170,6 +2214,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2873,8 +2926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:P8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2955,13 +3008,616 @@
     </row>
     <row r="2" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="B2" s="29" t="s">
         <v>347</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>358</v>
+        <v>381</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>354</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>391</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="I2" s="30">
+        <v>12000</v>
+      </c>
+      <c r="J2" s="38" t="s">
+        <v>348</v>
+      </c>
+      <c r="K2" s="29">
+        <v>230</v>
+      </c>
+      <c r="L2" s="31" t="s">
+        <v>380</v>
+      </c>
+      <c r="M2" s="31" t="s">
+        <v>348</v>
+      </c>
+      <c r="N2" s="29" t="s">
+        <v>361</v>
+      </c>
+      <c r="O2" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="P2" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="33" t="s">
+        <v>348</v>
+      </c>
+      <c r="S2" s="34">
+        <v>1</v>
+      </c>
+      <c r="T2" s="34">
+        <v>0</v>
+      </c>
+      <c r="U2" s="34">
+        <f>(S2+T2/60)</f>
+        <v>1</v>
+      </c>
+      <c r="V2" s="34" t="e">
+        <f>R2-U2</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W2" s="34" t="e">
+        <f>TEXT(V2,"000")&amp;TEXT(R2," (000)")</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>383</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>349</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>385</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>386</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>354</v>
+      </c>
+      <c r="G3" s="42" t="str">
+        <f t="shared" ref="G2:G4" si="0">W3</f>
+        <v>281 (282)</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="I3" s="45">
+        <v>8160</v>
+      </c>
+      <c r="J3" s="39">
+        <v>11.2</v>
+      </c>
+      <c r="K3" s="29">
+        <v>210</v>
+      </c>
+      <c r="L3" s="31" t="s">
+        <v>380</v>
+      </c>
+      <c r="M3" s="45" t="s">
+        <v>348</v>
+      </c>
+      <c r="N3" s="29" t="s">
+        <v>361</v>
+      </c>
+      <c r="O3" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="P3" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="33">
+        <v>281.64859000000001</v>
+      </c>
+      <c r="S3" s="34">
+        <v>1</v>
+      </c>
+      <c r="T3" s="34">
+        <v>0</v>
+      </c>
+      <c r="U3" s="34">
+        <f>(S3+T3/60)</f>
+        <v>1</v>
+      </c>
+      <c r="V3" s="34">
+        <f>R3-U3</f>
+        <v>280.64859000000001</v>
+      </c>
+      <c r="W3" s="34" t="str">
+        <f>TEXT(V3,"000")&amp;TEXT(R3," (000)")</f>
+        <v>281 (282)</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>383</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>352</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>326</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>387</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>388</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>354</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>348</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>353</v>
+      </c>
+      <c r="I4" s="45">
+        <v>7268</v>
+      </c>
+      <c r="J4" s="39">
+        <v>2.8</v>
+      </c>
+      <c r="K4" s="29">
+        <v>210</v>
+      </c>
+      <c r="L4" s="31" t="s">
+        <v>380</v>
+      </c>
+      <c r="M4" s="45" t="s">
+        <v>348</v>
+      </c>
+      <c r="N4" s="29" t="s">
+        <v>361</v>
+      </c>
+      <c r="O4" s="46">
+        <v>3.3</v>
+      </c>
+      <c r="P4" s="29" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="33" t="s">
+        <v>348</v>
+      </c>
+      <c r="S4" s="34">
+        <v>1</v>
+      </c>
+      <c r="T4" s="34">
+        <v>0</v>
+      </c>
+      <c r="U4" s="34">
+        <f t="shared" ref="U4:U8" si="1">(S4+T4/60)</f>
+        <v>1</v>
+      </c>
+      <c r="V4" s="34" t="e">
+        <f t="shared" ref="V4:V8" si="2">R4-U4</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W4" s="34" t="e">
+        <f t="shared" ref="W4:W8" si="3">TEXT(V4,"000")&amp;TEXT(R4," (000)")</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>383</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>349</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>384</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>389</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>390</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>354</v>
+      </c>
+      <c r="G5" s="42" t="str">
+        <f>W5</f>
+        <v>331 (332)</v>
+      </c>
+      <c r="H5" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="I5" s="45">
+        <v>5644</v>
+      </c>
+      <c r="J5" s="39">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="K5" s="29">
+        <v>210</v>
+      </c>
+      <c r="L5" s="31" t="s">
+        <v>380</v>
+      </c>
+      <c r="M5" s="45" t="s">
+        <v>348</v>
+      </c>
+      <c r="N5" s="29" t="s">
+        <v>361</v>
+      </c>
+      <c r="O5" s="35" t="s">
+        <v>348</v>
+      </c>
+      <c r="P5" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q5" s="41"/>
+      <c r="R5" s="33">
+        <v>331.83443</v>
+      </c>
+      <c r="S5" s="34">
+        <v>1</v>
+      </c>
+      <c r="T5" s="34">
+        <v>0</v>
+      </c>
+      <c r="U5" s="34">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V5" s="34">
+        <f t="shared" si="2"/>
+        <v>330.83443</v>
+      </c>
+      <c r="W5" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v>331 (332)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
+        <v>383</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>352</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>359</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>377</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>378</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>354</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>348</v>
+      </c>
+      <c r="H6" s="29" t="s">
+        <v>350</v>
+      </c>
+      <c r="I6" s="30">
+        <v>4193</v>
+      </c>
+      <c r="J6" s="39">
+        <v>3.9</v>
+      </c>
+      <c r="K6" s="29">
+        <v>165</v>
+      </c>
+      <c r="L6" s="31" t="s">
+        <v>380</v>
+      </c>
+      <c r="M6" s="45" t="s">
+        <v>351</v>
+      </c>
+      <c r="N6" s="29" t="s">
+        <v>361</v>
+      </c>
+      <c r="O6" s="31">
+        <v>2.7</v>
+      </c>
+      <c r="P6" s="29" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="33" t="s">
+        <v>348</v>
+      </c>
+      <c r="S6" s="34">
+        <v>1</v>
+      </c>
+      <c r="T6" s="34">
+        <v>0</v>
+      </c>
+      <c r="U6" s="34">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V6" s="34" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W6" s="34" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
+        <v>383</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>349</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>364</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>367</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>368</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>354</v>
+      </c>
+      <c r="G7" s="31" t="str">
+        <f>W7</f>
+        <v>248 (249)</v>
+      </c>
+      <c r="H7" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="I7" s="37" t="s">
+        <v>366</v>
+      </c>
+      <c r="J7" s="39">
+        <v>3</v>
+      </c>
+      <c r="K7" s="44" t="s">
+        <v>348</v>
+      </c>
+      <c r="L7" s="31" t="s">
+        <v>380</v>
+      </c>
+      <c r="M7" s="45" t="s">
+        <v>355</v>
+      </c>
+      <c r="N7" s="29" t="s">
+        <v>361</v>
+      </c>
+      <c r="O7" s="35" t="s">
+        <v>348</v>
+      </c>
+      <c r="P7" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="33">
+        <v>249.36086</v>
+      </c>
+      <c r="S7" s="34">
+        <v>1</v>
+      </c>
+      <c r="T7" s="34">
+        <v>0</v>
+      </c>
+      <c r="U7" s="34">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V7" s="34">
+        <f t="shared" si="2"/>
+        <v>248.36086</v>
+      </c>
+      <c r="W7" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v>248 (249)</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="29" t="s">
+        <v>383</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>349</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>365</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>369</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>370</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>354</v>
+      </c>
+      <c r="G8" s="31" t="str">
+        <f>W8</f>
+        <v>248 (249)</v>
+      </c>
+      <c r="H8" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="I8" s="30">
+        <v>6500</v>
+      </c>
+      <c r="J8" s="39">
+        <v>20.3</v>
+      </c>
+      <c r="K8" s="29">
+        <v>230</v>
+      </c>
+      <c r="L8" s="31" t="s">
+        <v>380</v>
+      </c>
+      <c r="M8" s="45" t="s">
+        <v>351</v>
+      </c>
+      <c r="N8" s="29" t="s">
+        <v>361</v>
+      </c>
+      <c r="O8" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="P8" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q8" s="41"/>
+      <c r="R8" s="33">
+        <v>249.32705000000001</v>
+      </c>
+      <c r="S8" s="34">
+        <v>1</v>
+      </c>
+      <c r="T8" s="34">
+        <v>0</v>
+      </c>
+      <c r="U8" s="34">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V8" s="34">
+        <f t="shared" si="2"/>
+        <v>248.32705000000001</v>
+      </c>
+      <c r="W8" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v>248 (249)</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R14" s="33">
+        <v>11.225300000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W14"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="5" width="15" customWidth="1"/>
+    <col min="16" max="17" width="13.140625" customWidth="1"/>
+    <col min="18" max="18" width="12.85546875" customWidth="1"/>
+    <col min="19" max="20" width="11.42578125" customWidth="1"/>
+    <col min="21" max="21" width="20.7109375" customWidth="1"/>
+    <col min="22" max="22" width="11.42578125" customWidth="1"/>
+    <col min="23" max="23" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>331</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>332</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>334</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>335</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>336</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>337</v>
+      </c>
+      <c r="K1" s="24" t="s">
+        <v>338</v>
+      </c>
+      <c r="L1" s="24" t="s">
+        <v>339</v>
+      </c>
+      <c r="M1" s="24" t="s">
+        <v>340</v>
+      </c>
+      <c r="N1" s="24" t="s">
+        <v>341</v>
+      </c>
+      <c r="O1" s="25" t="s">
+        <v>342</v>
+      </c>
+      <c r="P1" s="25" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="S1" s="26" t="s">
+        <v>344</v>
+      </c>
+      <c r="T1" s="26" t="s">
+        <v>345</v>
+      </c>
+      <c r="U1" s="27" t="s">
+        <v>346</v>
+      </c>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+    </row>
+    <row r="2" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>357</v>
       </c>
       <c r="D2" s="29" t="s">
         <v>137</v>
@@ -2970,7 +3626,7 @@
         <v>138</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G2" s="31" t="s">
         <v>348</v>
@@ -2981,20 +3637,20 @@
       <c r="I2" s="30">
         <v>9000</v>
       </c>
-      <c r="J2" s="38">
-        <v>3.2</v>
+      <c r="J2" s="38" t="s">
+        <v>348</v>
       </c>
       <c r="K2" s="29">
         <v>230</v>
       </c>
       <c r="L2" s="31" t="s">
-        <v>349</v>
+        <v>380</v>
       </c>
       <c r="M2" s="29" t="s">
         <v>348</v>
       </c>
       <c r="N2" s="29" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="O2" s="29" t="s">
         <v>348</v>
@@ -3014,25 +3670,25 @@
     </row>
     <row r="3" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C3" s="29" t="s">
         <v>322</v>
       </c>
       <c r="D3" s="29" t="s">
+        <v>371</v>
+      </c>
+      <c r="E3" s="29" t="s">
         <v>372</v>
       </c>
-      <c r="E3" s="29" t="s">
-        <v>373</v>
-      </c>
       <c r="F3" s="29" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G3" s="42" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H3" s="29" t="s">
         <v>348</v>
@@ -3047,13 +3703,13 @@
         <v>210</v>
       </c>
       <c r="L3" s="31" t="s">
-        <v>349</v>
+        <v>380</v>
       </c>
       <c r="M3" s="30" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="N3" s="29" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="O3" s="29" t="s">
         <v>348</v>
@@ -3086,28 +3742,28 @@
     </row>
     <row r="4" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D4" s="29" t="s">
+        <v>373</v>
+      </c>
+      <c r="E4" s="29" t="s">
         <v>374</v>
       </c>
-      <c r="E4" s="29" t="s">
-        <v>375</v>
-      </c>
       <c r="F4" s="29" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G4" s="31" t="s">
         <v>348</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I4" s="30">
         <v>8049</v>
@@ -3119,19 +3775,19 @@
         <v>210</v>
       </c>
       <c r="L4" s="31" t="s">
-        <v>349</v>
+        <v>380</v>
       </c>
       <c r="M4" s="30" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="N4" s="29" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="O4" s="36">
         <v>3.9</v>
       </c>
       <c r="P4" s="29" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="Q4" s="41"/>
       <c r="R4" s="33" t="s">
@@ -3158,22 +3814,22 @@
     </row>
     <row r="5" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D5" s="29" t="s">
+        <v>375</v>
+      </c>
+      <c r="E5" s="29" t="s">
         <v>376</v>
       </c>
-      <c r="E5" s="29" t="s">
-        <v>377</v>
-      </c>
       <c r="F5" s="29" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G5" s="31" t="str">
         <f>W5</f>
@@ -3192,13 +3848,13 @@
         <v>348</v>
       </c>
       <c r="L5" s="31" t="s">
-        <v>349</v>
+        <v>380</v>
       </c>
       <c r="M5" s="30" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="N5" s="29" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="O5" s="35" t="s">
         <v>348</v>
@@ -3231,28 +3887,28 @@
     </row>
     <row r="6" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D6" s="29" t="s">
+        <v>377</v>
+      </c>
+      <c r="E6" s="29" t="s">
         <v>378</v>
       </c>
-      <c r="E6" s="29" t="s">
-        <v>379</v>
-      </c>
       <c r="F6" s="29" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G6" s="31" t="s">
         <v>348</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I6" s="30">
         <v>4193</v>
@@ -3264,19 +3920,19 @@
         <v>165</v>
       </c>
       <c r="L6" s="31" t="s">
-        <v>349</v>
+        <v>380</v>
       </c>
       <c r="M6" s="30" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="N6" s="29" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="O6" s="29">
         <v>2.7</v>
       </c>
       <c r="P6" s="29" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="Q6" s="41"/>
       <c r="R6" s="33" t="s">
@@ -3303,22 +3959,22 @@
     </row>
     <row r="7" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D7" s="29" t="s">
+        <v>367</v>
+      </c>
+      <c r="E7" s="29" t="s">
         <v>368</v>
       </c>
-      <c r="E7" s="29" t="s">
-        <v>369</v>
-      </c>
       <c r="F7" s="29" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G7" s="31" t="str">
         <f>W7</f>
@@ -3328,7 +3984,7 @@
         <v>348</v>
       </c>
       <c r="I7" s="37" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J7" s="39">
         <v>3</v>
@@ -3337,13 +3993,13 @@
         <v>248</v>
       </c>
       <c r="L7" s="31" t="s">
-        <v>349</v>
+        <v>380</v>
       </c>
       <c r="M7" s="30" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N7" s="29" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="O7" s="35" t="s">
         <v>348</v>
@@ -3376,22 +4032,22 @@
     </row>
     <row r="8" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D8" s="29" t="s">
+        <v>369</v>
+      </c>
+      <c r="E8" s="29" t="s">
         <v>370</v>
       </c>
-      <c r="E8" s="29" t="s">
-        <v>371</v>
-      </c>
       <c r="F8" s="29" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G8" s="31" t="str">
         <f>W8</f>
@@ -3410,13 +4066,13 @@
         <v>230</v>
       </c>
       <c r="L8" s="31" t="s">
-        <v>349</v>
+        <v>380</v>
       </c>
       <c r="M8" s="30" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="N8" s="29" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="O8" s="29" t="s">
         <v>348</v>
@@ -3457,7 +4113,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C44"/>
   <sheetViews>
@@ -3950,7 +4606,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
   <sheetViews>
@@ -4256,7 +4912,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
   <sheetViews>
@@ -4572,7 +5228,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:C16"/>
   <sheetViews>

--- a/03_AD/MROC/RNAV SID AND STAR TABLES.xlsx
+++ b/03_AD/MROC/RNAV SID AND STAR TABLES.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,23 +9,25 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="28755" windowHeight="12585" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="28755" windowHeight="12585" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="COCOS2" sheetId="4" r:id="rId1"/>
-    <sheet name="RNP E RWY25 AR" sheetId="7" r:id="rId2"/>
-    <sheet name="RNP W RWY25 AR" sheetId="6" r:id="rId3"/>
-    <sheet name="SID COCOS7" sheetId="1" r:id="rId4"/>
-    <sheet name="TARCO 1" sheetId="2" r:id="rId5"/>
-    <sheet name="TARCO 2" sheetId="3" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
+    <sheet name="CYRUS2 RNP" sheetId="8" r:id="rId2"/>
+    <sheet name="CYRUS2 RNP CONT" sheetId="10" r:id="rId3"/>
+    <sheet name="COCOS2" sheetId="4" r:id="rId4"/>
+    <sheet name="RNP E RWY25 AR" sheetId="7" r:id="rId5"/>
+    <sheet name="RNP W RWY25 AR" sheetId="6" r:id="rId6"/>
+    <sheet name="SID COCOS7" sheetId="1" r:id="rId7"/>
+    <sheet name="TARCO 1" sheetId="2" r:id="rId8"/>
+    <sheet name="TARCO 2" sheetId="3" r:id="rId9"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="451">
   <si>
     <t>095747.3N</t>
   </si>
@@ -1698,6 +1700,185 @@
   </si>
   <si>
     <t>282 (283)</t>
+  </si>
+  <si>
+    <t>MONTE</t>
+  </si>
+  <si>
+    <t>CYRUS</t>
+  </si>
+  <si>
+    <t>BELEN</t>
+  </si>
+  <si>
+    <t>EPABE</t>
+  </si>
+  <si>
+    <t>JOAKI</t>
+  </si>
+  <si>
+    <t>CIJUD</t>
+  </si>
+  <si>
+    <t>UM25</t>
+  </si>
+  <si>
+    <t>UM07</t>
+  </si>
+  <si>
+    <t>FANAL</t>
+  </si>
+  <si>
+    <t>095714.34N</t>
+  </si>
+  <si>
+    <t>0841854.44W</t>
+  </si>
+  <si>
+    <t>095813.55N</t>
+  </si>
+  <si>
+    <t>0841616.86W</t>
+  </si>
+  <si>
+    <t>095742.00N</t>
+  </si>
+  <si>
+    <t>0841236.00W</t>
+  </si>
+  <si>
+    <t>095931.95N
+0841007.79W</t>
+  </si>
+  <si>
+    <t>095842.00N</t>
+  </si>
+  <si>
+    <t>0840942.00W</t>
+  </si>
+  <si>
+    <t>100002.82N</t>
+  </si>
+  <si>
+    <t>0840920.50W</t>
+  </si>
+  <si>
+    <t>100024.46N</t>
+  </si>
+  <si>
+    <t>0841027.77W</t>
+  </si>
+  <si>
+    <t>095920.68N</t>
+  </si>
+  <si>
+    <t>0841318.32W</t>
+  </si>
+  <si>
+    <t>100048.00N</t>
+  </si>
+  <si>
+    <t>0841800.00W</t>
+  </si>
+  <si>
+    <t>1°37' W</t>
+  </si>
+  <si>
+    <t>1°39' W</t>
+  </si>
+  <si>
+    <t>1°41' W</t>
+  </si>
+  <si>
+    <t>1°43' W</t>
+  </si>
+  <si>
+    <t>1°44' W</t>
+  </si>
+  <si>
+    <t>1°42' W</t>
+  </si>
+  <si>
+    <t>-3°</t>
+  </si>
+  <si>
+    <t>AD Temp</t>
+  </si>
+  <si>
+    <t>WIND VALUE COMPONENT</t>
+  </si>
+  <si>
+    <t>35°C</t>
+  </si>
+  <si>
+    <t>AD TREF 30°C</t>
+  </si>
+  <si>
+    <t>25°C</t>
+  </si>
+  <si>
+    <t>20°C</t>
+  </si>
+  <si>
+    <t>15°C</t>
+  </si>
+  <si>
+    <t>AD ISA 9°C</t>
+  </si>
+  <si>
+    <t>3.5°</t>
+  </si>
+  <si>
+    <t>3.4°</t>
+  </si>
+  <si>
+    <t>3.3°</t>
+  </si>
+  <si>
+    <t>3.2°</t>
+  </si>
+  <si>
+    <t>3.1°</t>
+  </si>
+  <si>
+    <t>3.0°</t>
+  </si>
+  <si>
+    <t>2.9°</t>
+  </si>
+  <si>
+    <t>2.8°</t>
+  </si>
+  <si>
+    <t>2.7°</t>
+  </si>
+  <si>
+    <t>-15 KT</t>
+  </si>
+  <si>
+    <t>-10 KT</t>
+  </si>
+  <si>
+    <t>-5 KT</t>
+  </si>
+  <si>
+    <t>CALM</t>
+  </si>
+  <si>
+    <t>+5 KT</t>
+  </si>
+  <si>
+    <t>+10 KT</t>
+  </si>
+  <si>
+    <t>+15 KT</t>
+  </si>
+  <si>
+    <t>VPA DEVIATIONS</t>
+  </si>
+  <si>
+    <t>CYRUS 2 RNAV 
+RNV25-A</t>
   </si>
 </sst>
 </file>
@@ -1707,7 +1888,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1775,8 +1956,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1801,6 +1995,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="20">
     <border>
@@ -2089,7 +2289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2224,6 +2424,39 @@
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2563,6 +2796,1094 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B6:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="23" t="s">
+        <v>322</v>
+      </c>
+      <c r="C6" s="23">
+        <v>8568</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="23" t="s">
+        <v>323</v>
+      </c>
+      <c r="C7" s="23">
+        <v>8049</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="C8" s="23">
+        <v>6700</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="C14" s="23">
+        <v>8100</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="C15" s="23">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="23" t="s">
+        <v>327</v>
+      </c>
+      <c r="C16" s="23">
+        <v>5300</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W17"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:P10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="4" max="5" width="15" customWidth="1"/>
+    <col min="14" max="14" width="13" customWidth="1"/>
+    <col min="16" max="17" width="13.140625" customWidth="1"/>
+    <col min="18" max="18" width="12.85546875" customWidth="1"/>
+    <col min="19" max="20" width="11.42578125" customWidth="1"/>
+    <col min="21" max="21" width="20.7109375" customWidth="1"/>
+    <col min="22" max="22" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>331</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>332</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>334</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>335</v>
+      </c>
+      <c r="I1" s="24" t="s">
+        <v>336</v>
+      </c>
+      <c r="J1" s="24" t="s">
+        <v>337</v>
+      </c>
+      <c r="K1" s="24" t="s">
+        <v>338</v>
+      </c>
+      <c r="L1" s="24" t="s">
+        <v>339</v>
+      </c>
+      <c r="M1" s="24" t="s">
+        <v>340</v>
+      </c>
+      <c r="N1" s="24" t="s">
+        <v>341</v>
+      </c>
+      <c r="O1" s="25" t="s">
+        <v>342</v>
+      </c>
+      <c r="P1" s="25" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="S1" s="26" t="s">
+        <v>344</v>
+      </c>
+      <c r="T1" s="26" t="s">
+        <v>345</v>
+      </c>
+      <c r="U1" s="27" t="s">
+        <v>346</v>
+      </c>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+    </row>
+    <row r="2" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>450</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>347</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>392</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>401</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>402</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="G2" s="52" t="s">
+        <v>348</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="I2" s="48">
+        <v>4600</v>
+      </c>
+      <c r="J2" s="38" t="s">
+        <v>348</v>
+      </c>
+      <c r="K2" s="29">
+        <v>190</v>
+      </c>
+      <c r="L2" s="31" t="s">
+        <v>418</v>
+      </c>
+      <c r="M2" s="31" t="s">
+        <v>348</v>
+      </c>
+      <c r="N2" s="50">
+        <v>0.3</v>
+      </c>
+      <c r="O2" s="35" t="s">
+        <v>348</v>
+      </c>
+      <c r="P2" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="33" t="s">
+        <v>348</v>
+      </c>
+      <c r="S2" s="53" t="s">
+        <v>348</v>
+      </c>
+      <c r="T2" s="53" t="s">
+        <v>348</v>
+      </c>
+      <c r="U2" s="53" t="s">
+        <v>348</v>
+      </c>
+      <c r="V2" s="53" t="s">
+        <v>348</v>
+      </c>
+      <c r="W2" s="53" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>450</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>349</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>403</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>404</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="G3" s="52" t="str">
+        <f t="shared" ref="G3:G10" si="0">W3</f>
+        <v>070.86 (069.24)</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="I3" s="49">
+        <v>4100</v>
+      </c>
+      <c r="J3" s="47">
+        <v>2.77</v>
+      </c>
+      <c r="K3" s="29">
+        <v>160</v>
+      </c>
+      <c r="L3" s="31" t="s">
+        <v>419</v>
+      </c>
+      <c r="M3" s="45" t="s">
+        <v>348</v>
+      </c>
+      <c r="N3" s="50">
+        <v>0.3</v>
+      </c>
+      <c r="O3" s="35" t="s">
+        <v>348</v>
+      </c>
+      <c r="P3" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="33">
+        <v>69.239999999999995</v>
+      </c>
+      <c r="S3" s="53" t="str">
+        <f>MID(L2,1,1)</f>
+        <v>1</v>
+      </c>
+      <c r="T3" s="53" t="str">
+        <f>MID(L2,3,2)</f>
+        <v>37</v>
+      </c>
+      <c r="U3" s="53">
+        <f>-(S3+T3/60)</f>
+        <v>-1.6166666666666667</v>
+      </c>
+      <c r="V3" s="53">
+        <f>R3-U3</f>
+        <v>70.856666666666655</v>
+      </c>
+      <c r="W3" s="53" t="str">
+        <f>TEXT(V3,"000.00")&amp;TEXT(R3," (000.00)")</f>
+        <v>070.86 (069.24)</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>450</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>349</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>394</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>405</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>406</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="G4" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>099.84 (098.19)</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="I4" s="49">
+        <v>4100</v>
+      </c>
+      <c r="J4" s="47">
+        <v>3.67</v>
+      </c>
+      <c r="K4" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="L4" s="31" t="s">
+        <v>420</v>
+      </c>
+      <c r="M4" s="45" t="s">
+        <v>348</v>
+      </c>
+      <c r="N4" s="51">
+        <v>0.3</v>
+      </c>
+      <c r="O4" s="35" t="s">
+        <v>348</v>
+      </c>
+      <c r="P4" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="33">
+        <v>98.19</v>
+      </c>
+      <c r="S4" s="53" t="str">
+        <f t="shared" ref="S4:S11" si="1">MID(L3,1,1)</f>
+        <v>1</v>
+      </c>
+      <c r="T4" s="53" t="str">
+        <f t="shared" ref="T4:T11" si="2">MID(L3,3,2)</f>
+        <v>39</v>
+      </c>
+      <c r="U4" s="53">
+        <f t="shared" ref="U4:U10" si="3">-(S4+T4/60)</f>
+        <v>-1.65</v>
+      </c>
+      <c r="V4" s="53">
+        <f t="shared" ref="V4:V10" si="4">R4-U4</f>
+        <v>99.84</v>
+      </c>
+      <c r="W4" s="53" t="str">
+        <f t="shared" ref="W4:W10" si="5">TEXT(V4,"000.00")&amp;TEXT(R4," (000.00)")</f>
+        <v>099.84 (098.19)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>450</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>349</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>395</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>408</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>409</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="G5" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>072.49 (070.81)</v>
+      </c>
+      <c r="H5" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="I5" s="49">
+        <v>4100</v>
+      </c>
+      <c r="J5" s="47">
+        <v>3</v>
+      </c>
+      <c r="K5" s="29">
+        <v>145</v>
+      </c>
+      <c r="L5" s="31" t="s">
+        <v>421</v>
+      </c>
+      <c r="M5" s="45" t="s">
+        <v>348</v>
+      </c>
+      <c r="N5" s="50">
+        <v>0.3</v>
+      </c>
+      <c r="O5" s="35" t="s">
+        <v>348</v>
+      </c>
+      <c r="P5" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q5" s="41"/>
+      <c r="R5" s="33">
+        <v>70.81</v>
+      </c>
+      <c r="S5" s="53" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T5" s="53" t="str">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="U5" s="53">
+        <f t="shared" si="3"/>
+        <v>-1.6833333333333333</v>
+      </c>
+      <c r="V5" s="53">
+        <f t="shared" si="4"/>
+        <v>72.493333333333339</v>
+      </c>
+      <c r="W5" s="53" t="str">
+        <f t="shared" si="5"/>
+        <v>072.49 (070.81)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
+        <v>450</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>352</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>396</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>410</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>411</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="G6" s="52" t="s">
+        <v>348</v>
+      </c>
+      <c r="H6" s="29" t="s">
+        <v>350</v>
+      </c>
+      <c r="I6" s="48">
+        <v>4000</v>
+      </c>
+      <c r="J6" s="47">
+        <v>1.6</v>
+      </c>
+      <c r="K6" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="L6" s="31" t="s">
+        <v>422</v>
+      </c>
+      <c r="M6" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="N6" s="51">
+        <v>0.3</v>
+      </c>
+      <c r="O6" s="47">
+        <v>0.9</v>
+      </c>
+      <c r="P6" s="29" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="33"/>
+      <c r="S6" s="53" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T6" s="53" t="str">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="U6" s="53">
+        <f t="shared" si="3"/>
+        <v>-1.7166666666666668</v>
+      </c>
+      <c r="V6" s="53">
+        <f t="shared" si="4"/>
+        <v>1.7166666666666668</v>
+      </c>
+      <c r="W6" s="53" t="str">
+        <f t="shared" si="5"/>
+        <v>001.72 (000.00)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
+        <v>450</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>352</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>397</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>412</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>413</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="G7" s="52" t="s">
+        <v>348</v>
+      </c>
+      <c r="H7" s="29" t="s">
+        <v>350</v>
+      </c>
+      <c r="I7" s="48">
+        <v>3600</v>
+      </c>
+      <c r="J7" s="47">
+        <v>1.3</v>
+      </c>
+      <c r="K7" s="44" t="s">
+        <v>348</v>
+      </c>
+      <c r="L7" s="31" t="s">
+        <v>421</v>
+      </c>
+      <c r="M7" s="45" t="s">
+        <v>348</v>
+      </c>
+      <c r="N7" s="50">
+        <v>0.3</v>
+      </c>
+      <c r="O7" s="35">
+        <v>0.9</v>
+      </c>
+      <c r="P7" s="29" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="33"/>
+      <c r="S7" s="53" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T7" s="53" t="str">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="U7" s="53">
+        <f t="shared" si="3"/>
+        <v>-1.7333333333333334</v>
+      </c>
+      <c r="V7" s="53">
+        <f t="shared" si="4"/>
+        <v>1.7333333333333334</v>
+      </c>
+      <c r="W7" s="53" t="str">
+        <f t="shared" si="5"/>
+        <v>001.73 (000.00)</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="29" t="s">
+        <v>450</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>349</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>398</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>367</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>368</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>354</v>
+      </c>
+      <c r="G8" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>251.05 (249.33)</v>
+      </c>
+      <c r="H8" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="I8" s="48">
+        <v>3080</v>
+      </c>
+      <c r="J8" s="47">
+        <v>1.6</v>
+      </c>
+      <c r="K8" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="L8" s="31" t="s">
+        <v>423</v>
+      </c>
+      <c r="M8" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="N8" s="50" t="s">
+        <v>348</v>
+      </c>
+      <c r="O8" s="35" t="s">
+        <v>348</v>
+      </c>
+      <c r="P8" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q8" s="41"/>
+      <c r="R8" s="33">
+        <v>249.33</v>
+      </c>
+      <c r="S8" s="53" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T8" s="53" t="str">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="U8" s="53">
+        <f t="shared" si="3"/>
+        <v>-1.7166666666666668</v>
+      </c>
+      <c r="V8" s="53">
+        <f t="shared" si="4"/>
+        <v>251.04666666666668</v>
+      </c>
+      <c r="W8" s="53" t="str">
+        <f t="shared" si="5"/>
+        <v>251.05 (249.33)</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="36" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
+        <v>450</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>349</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>399</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>414</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>415</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>354</v>
+      </c>
+      <c r="G9" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>251.03 (249.33)</v>
+      </c>
+      <c r="H9" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="I9" s="48">
+        <v>3500</v>
+      </c>
+      <c r="J9" s="47">
+        <v>1.4</v>
+      </c>
+      <c r="K9" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="L9" s="31" t="s">
+        <v>420</v>
+      </c>
+      <c r="M9" s="45" t="s">
+        <v>348</v>
+      </c>
+      <c r="N9" s="50">
+        <v>1</v>
+      </c>
+      <c r="O9" s="35" t="s">
+        <v>348</v>
+      </c>
+      <c r="P9" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="33">
+        <v>249.33</v>
+      </c>
+      <c r="S9" s="53" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T9" s="53" t="str">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="U9" s="53">
+        <f t="shared" si="3"/>
+        <v>-1.7</v>
+      </c>
+      <c r="V9" s="53">
+        <f t="shared" si="4"/>
+        <v>251.03</v>
+      </c>
+      <c r="W9" s="53" t="str">
+        <f t="shared" si="5"/>
+        <v>251.03 (249.33)</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="36" x14ac:dyDescent="0.25">
+      <c r="A10" s="29" t="s">
+        <v>450</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>349</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>400</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>416</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>417</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="G10" s="52" t="str">
+        <f t="shared" si="0"/>
+        <v>289.05 (287.37)</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="I10" s="48">
+        <v>7000</v>
+      </c>
+      <c r="J10" s="47">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="K10" s="29">
+        <v>185</v>
+      </c>
+      <c r="L10" s="31" t="s">
+        <v>419</v>
+      </c>
+      <c r="M10" s="45" t="s">
+        <v>348</v>
+      </c>
+      <c r="N10" s="50">
+        <v>1</v>
+      </c>
+      <c r="O10" s="35" t="s">
+        <v>348</v>
+      </c>
+      <c r="P10" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q10" s="41"/>
+      <c r="R10" s="33">
+        <v>287.37</v>
+      </c>
+      <c r="S10" s="53" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T10" s="53" t="str">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="U10" s="53">
+        <f t="shared" si="3"/>
+        <v>-1.6833333333333333</v>
+      </c>
+      <c r="V10" s="53">
+        <f t="shared" si="4"/>
+        <v>289.05333333333334</v>
+      </c>
+      <c r="W10" s="53" t="str">
+        <f t="shared" si="5"/>
+        <v>289.05 (287.37)</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" s="54"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" s="54"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" s="54"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" s="54"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="54"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="55" t="s">
+        <v>449</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="55" t="s">
+        <v>425</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>426</v>
+      </c>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="55"/>
+      <c r="B3" s="56" t="s">
+        <v>442</v>
+      </c>
+      <c r="C3" s="56" t="s">
+        <v>443</v>
+      </c>
+      <c r="D3" s="56" t="s">
+        <v>444</v>
+      </c>
+      <c r="E3" s="56" t="s">
+        <v>445</v>
+      </c>
+      <c r="F3" s="56" t="s">
+        <v>446</v>
+      </c>
+      <c r="G3" s="56" t="s">
+        <v>447</v>
+      </c>
+      <c r="H3" s="56" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="57" t="s">
+        <v>427</v>
+      </c>
+      <c r="B4" s="57" t="s">
+        <v>433</v>
+      </c>
+      <c r="C4" s="57" t="s">
+        <v>434</v>
+      </c>
+      <c r="D4" s="57" t="s">
+        <v>435</v>
+      </c>
+      <c r="E4" s="57" t="s">
+        <v>436</v>
+      </c>
+      <c r="F4" s="57" t="s">
+        <v>437</v>
+      </c>
+      <c r="G4" s="57" t="s">
+        <v>439</v>
+      </c>
+      <c r="H4" s="57" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="57" t="s">
+        <v>428</v>
+      </c>
+      <c r="B5" s="57" t="s">
+        <v>433</v>
+      </c>
+      <c r="C5" s="57" t="s">
+        <v>434</v>
+      </c>
+      <c r="D5" s="57" t="s">
+        <v>435</v>
+      </c>
+      <c r="E5" s="57" t="s">
+        <v>436</v>
+      </c>
+      <c r="F5" s="57" t="s">
+        <v>437</v>
+      </c>
+      <c r="G5" s="57" t="s">
+        <v>439</v>
+      </c>
+      <c r="H5" s="57" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="57" t="s">
+        <v>429</v>
+      </c>
+      <c r="B6" s="57" t="s">
+        <v>433</v>
+      </c>
+      <c r="C6" s="57" t="s">
+        <v>434</v>
+      </c>
+      <c r="D6" s="57" t="s">
+        <v>435</v>
+      </c>
+      <c r="E6" s="57" t="s">
+        <v>436</v>
+      </c>
+      <c r="F6" s="57" t="s">
+        <v>437</v>
+      </c>
+      <c r="G6" s="57" t="s">
+        <v>439</v>
+      </c>
+      <c r="H6" s="57" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="57" t="s">
+        <v>430</v>
+      </c>
+      <c r="B7" s="57" t="s">
+        <v>434</v>
+      </c>
+      <c r="C7" s="57" t="s">
+        <v>435</v>
+      </c>
+      <c r="D7" s="57" t="s">
+        <v>436</v>
+      </c>
+      <c r="E7" s="57" t="s">
+        <v>437</v>
+      </c>
+      <c r="F7" s="57" t="s">
+        <v>438</v>
+      </c>
+      <c r="G7" s="57" t="s">
+        <v>439</v>
+      </c>
+      <c r="H7" s="57" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="57" t="s">
+        <v>431</v>
+      </c>
+      <c r="B8" s="57" t="s">
+        <v>434</v>
+      </c>
+      <c r="C8" s="57" t="s">
+        <v>435</v>
+      </c>
+      <c r="D8" s="57" t="s">
+        <v>436</v>
+      </c>
+      <c r="E8" s="57" t="s">
+        <v>437</v>
+      </c>
+      <c r="F8" s="57" t="s">
+        <v>438</v>
+      </c>
+      <c r="G8" s="57" t="s">
+        <v>439</v>
+      </c>
+      <c r="H8" s="57" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="57" t="s">
+        <v>432</v>
+      </c>
+      <c r="B9" s="57" t="s">
+        <v>435</v>
+      </c>
+      <c r="C9" s="57" t="s">
+        <v>436</v>
+      </c>
+      <c r="D9" s="57" t="s">
+        <v>437</v>
+      </c>
+      <c r="E9" s="57" t="s">
+        <v>438</v>
+      </c>
+      <c r="F9" s="57" t="s">
+        <v>439</v>
+      </c>
+      <c r="G9" s="57" t="s">
+        <v>440</v>
+      </c>
+      <c r="H9" s="57" t="s">
+        <v>441</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -2922,12 +4243,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:P8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3098,7 +4419,7 @@
         <v>354</v>
       </c>
       <c r="G3" s="42" t="str">
-        <f t="shared" ref="G2:G4" si="0">W3</f>
+        <f t="shared" ref="G3" si="0">W3</f>
         <v>281 (282)</v>
       </c>
       <c r="H3" s="29" t="s">
@@ -3525,12 +4846,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4113,7 +5434,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C44"/>
   <sheetViews>
@@ -4606,7 +5927,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
   <sheetViews>
@@ -4912,7 +6233,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
   <sheetViews>
@@ -5226,68 +6547,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B6:C16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:C16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="23" t="s">
-        <v>322</v>
-      </c>
-      <c r="C6" s="23">
-        <v>8568</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="23" t="s">
-        <v>323</v>
-      </c>
-      <c r="C7" s="23">
-        <v>8049</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="23" t="s">
-        <v>324</v>
-      </c>
-      <c r="C8" s="23">
-        <v>6700</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="23" t="s">
-        <v>325</v>
-      </c>
-      <c r="C14" s="23">
-        <v>8100</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="23" t="s">
-        <v>326</v>
-      </c>
-      <c r="C15" s="23">
-        <v>7100</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="23" t="s">
-        <v>327</v>
-      </c>
-      <c r="C16" s="23">
-        <v>5300</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>